--- a/data/presensi.xlsx
+++ b/data/presensi.xlsx
@@ -1,80 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="990" yWindow="2175" windowWidth="15375" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MK_1" sheetId="1" r:id="rId4"/>
+    <sheet name="MK_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MK_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MK_3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>tanggal</t>
-  </si>
-  <si>
-    <t>waktu_presensi</t>
-  </si>
-  <si>
-    <t>NIM</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <sz val="10"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -264,37 +356,280 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>tanggal</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>waktu_presensi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14:41:07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>181524002</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alvira</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:42:44</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>181524003</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ananda</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:43:19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>181524004</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chofief</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>hadir</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>tanggal</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>waktu_presensi</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>tanggal</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>waktu_presensi</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14:44:15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>181524023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nadia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/03/2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:45:01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>181524002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Alvira</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>hadir</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/presensi.xlsx
+++ b/data/presensi.xlsx
@@ -540,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,29 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03/03/2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08:50:16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>181524007</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Evan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
